--- a/public/formats/Formato_actividad.xlsx
+++ b/public/formats/Formato_actividad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Actividad" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -558,6 +558,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,49 +906,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -964,72 +968,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
